--- a/output/part3/5. vw_sheet.xlsx
+++ b/output/part3/5. vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01902684858636682</v>
+        <v>-0.01902684858636682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05543899352900331</v>
+        <v>-0.05543899352900331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1052931218671781</v>
+        <v>-0.1052931218671781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1975943494320393</v>
+        <v>-0.1975943494320393</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.168102848795322</v>
+        <v>-2.168102848795322</v>
       </c>
       <c r="C3" t="n">
-        <v>3.932687302216971</v>
+        <v>-3.932687302216971</v>
       </c>
       <c r="D3" t="n">
-        <v>5.579585960745981</v>
+        <v>-5.579585960745981</v>
       </c>
       <c r="E3" t="n">
-        <v>5.045423769786464</v>
+        <v>-5.045423769786464</v>
       </c>
     </row>
     <row r="4">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02543513816429832</v>
+        <v>-0.02543513816429832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06268016043885835</v>
+        <v>-0.06268016043885835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1180118098942012</v>
+        <v>-0.1180118098942012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2130219254135131</v>
+        <v>-0.2130219254135131</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.930039866262657</v>
+        <v>-2.930039866262657</v>
       </c>
       <c r="C9" t="n">
-        <v>4.489173263703629</v>
+        <v>-4.489173263703629</v>
       </c>
       <c r="D9" t="n">
-        <v>4.842923094343076</v>
+        <v>-4.842923094343076</v>
       </c>
       <c r="E9" t="n">
-        <v>5.104024997977976</v>
+        <v>-5.104024997977976</v>
       </c>
     </row>
     <row r="10">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02382755919946326</v>
+        <v>-0.02382755919946326</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06133715924085409</v>
+        <v>-0.06133715924085409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1204364708774827</v>
+        <v>-0.1204364708774827</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2142538934657812</v>
+        <v>-0.2142538934657812</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.753086621623842</v>
+        <v>-2.753086621623842</v>
       </c>
       <c r="C15" t="n">
-        <v>4.327591271816095</v>
+        <v>-4.327591271816095</v>
       </c>
       <c r="D15" t="n">
-        <v>4.735858378273784</v>
+        <v>-4.735858378273784</v>
       </c>
       <c r="E15" t="n">
-        <v>5.481689320367644</v>
+        <v>-5.481689320367644</v>
       </c>
     </row>
     <row r="16">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02917431387176932</v>
+        <v>-0.02917431387176932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07978633906959919</v>
+        <v>-0.07978633906959919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1525031149583731</v>
+        <v>-0.1525031149583731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2433582310974808</v>
+        <v>-0.2433582310974808</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.382632035845933</v>
+        <v>-3.382632035845933</v>
       </c>
       <c r="C21" t="n">
-        <v>5.306121679010376</v>
+        <v>-5.306121679010376</v>
       </c>
       <c r="D21" t="n">
-        <v>5.707243467706832</v>
+        <v>-5.707243467706832</v>
       </c>
       <c r="E21" t="n">
-        <v>5.877998203186245</v>
+        <v>-5.877998203186245</v>
       </c>
     </row>
     <row r="22">

--- a/output/part3/5. vw_sheet.xlsx
+++ b/output/part3/5. vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01902684858636682</v>
+        <v>0.005514214498158991</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05543899352900331</v>
+        <v>0.007694010848738613</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1052931218671781</v>
+        <v>0.009578166933231158</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1975943494320393</v>
+        <v>0.01126444240632555</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.168102848795322</v>
+        <v>1.955155689973489</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.932687302216971</v>
+        <v>3.394831111512401</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.579585960745981</v>
+        <v>4.926115517268729</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.045423769786464</v>
+        <v>4.734337573985806</v>
       </c>
     </row>
     <row r="4">
@@ -500,17 +500,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06214967059661008</v>
+        <v>-0.02220448350877621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1283153453837172</v>
+        <v>-0.02481912364874573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1972056774182842</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2708414004579343</v>
-      </c>
+        <v>-0.0324023320837963</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -519,17 +517,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.904686011237328</v>
+        <v>-7.013272318267988</v>
       </c>
       <c r="C5" t="n">
-        <v>8.405044530717856</v>
+        <v>-8.404164939436404</v>
       </c>
       <c r="D5" t="n">
-        <v>8.362914209053541</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.545272054381753</v>
-      </c>
+        <v>-6.333969479823645</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -538,17 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04312282201024327</v>
+        <v>0.01224697559470602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07287635185471388</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09191255555110603</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07324705102589502</v>
-      </c>
+        <v>0.008368220489540192</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -557,17 +549,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.289851619566106</v>
+        <v>2.795967234906044</v>
       </c>
       <c r="C7" t="n">
-        <v>3.467368555880953</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.164171631928194</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.529602564819863</v>
-      </c>
+        <v>2.273219974189968</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -576,16 +564,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02543513816429832</v>
+        <v>0.007657089661325975</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06268016043885835</v>
+        <v>0.008903211863784781</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1180118098942012</v>
+        <v>0.01063790674073911</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2130219254135131</v>
+        <v>0.01238057532362279</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +583,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.930039866262657</v>
+        <v>2.765221197521946</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.489173263703629</v>
+        <v>4.040882854193589</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.842923094343076</v>
+        <v>4.8014351120712</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.104024997977976</v>
+        <v>4.952453258095796</v>
       </c>
     </row>
     <row r="10">
@@ -614,17 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05640120339671986</v>
+        <v>-0.02017519830935221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1157252876157445</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1926594886544525</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2599600018318089</v>
-      </c>
+        <v>-0.0226542295666625</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -633,17 +617,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.215741233937985</v>
+        <v>-6.339797393399877</v>
       </c>
       <c r="C11" t="n">
-        <v>7.377521054077043</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.557961365399272</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.915080160825698</v>
-      </c>
+        <v>-7.389830631458113</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -652,17 +632,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03096606523242154</v>
+        <v>0.00835776495227241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05304512717688616</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.07464767876025133</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.04693807641829587</v>
-      </c>
+        <v>0.004504963447397542</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,17 +647,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.354891484948837</v>
+        <v>1.895934115745534</v>
       </c>
       <c r="C13" t="n">
-        <v>2.503929777821846</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.175076612704963</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8692927287646499</v>
-      </c>
+        <v>1.119383893630111</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -690,16 +662,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02382755919946326</v>
+        <v>0.007078685298556125</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06133715924085409</v>
+        <v>0.008680487604028096</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1204364708774827</v>
+        <v>0.01065621721080113</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2142538934657812</v>
+        <v>0.01259666415202041</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +681,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.753086621623842</v>
+        <v>2.515867263755929</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.327591271816095</v>
+        <v>3.804121870816258</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.735858378273784</v>
+        <v>4.619232663797836</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.481689320367644</v>
+        <v>5.124331086033146</v>
       </c>
     </row>
     <row r="16">
@@ -728,17 +700,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04942820912470182</v>
+        <v>-0.01773686138069842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1072488695590313</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1736473191574436</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.2384526019463053</v>
-      </c>
+        <v>-0.02116683297095204</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -747,17 +715,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.359937863277277</v>
+        <v>-5.513178630950585</v>
       </c>
       <c r="C17" t="n">
-        <v>6.567347089434236</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.557054169196132</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.067637927651862</v>
-      </c>
+        <v>-6.616497594119018</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -766,17 +730,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02560064992523855</v>
+        <v>0.006810583529634118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04591171031817719</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0532108482799608</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.02419870848052412</v>
-      </c>
+        <v>0.004615601784072395</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -785,17 +745,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.034640153586873</v>
+        <v>1.622825916512491</v>
       </c>
       <c r="C19" t="n">
-        <v>2.168702443345928</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.517996243398557</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4614745587475015</v>
-      </c>
+        <v>1.349078961405825</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -804,16 +760,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02917431387176932</v>
+        <v>0.008852954431593705</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.07978633906959919</v>
+        <v>0.01150173881096942</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1525031149583731</v>
+        <v>0.01358360093365739</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2433582310974808</v>
+        <v>0.01447989462478875</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +779,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.382632035845933</v>
+        <v>3.123567132121082</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.306121679010376</v>
+        <v>4.75913123278851</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.707243467706832</v>
+        <v>5.571118917644933</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.877998203186245</v>
+        <v>5.632052754125775</v>
       </c>
     </row>
     <row r="22">
@@ -842,17 +798,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04558242798401019</v>
+        <v>-0.01652269895533423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09827990467281819</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1588618366003689</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.225602204046751</v>
-      </c>
+        <v>-0.01976221467413408</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -861,17 +813,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.760661133677316</v>
+        <v>-4.936235049943778</v>
       </c>
       <c r="C23" t="n">
-        <v>5.658647839571952</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.865641747894426</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.58304069344248</v>
-      </c>
+        <v>-5.837038295467231</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -880,17 +828,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01640811411224086</v>
+        <v>0.003779808589563728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.018493565603219</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.006358721641995705</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.01775602705072982</v>
-      </c>
+        <v>-0.0002637754810975874</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -899,17 +843,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.261643492484261</v>
+        <v>0.8851654475796069</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8227875638552405</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1719649080825212</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.3358955721362136</v>
-      </c>
+        <v>-0.07193459449966344</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/part3/5. vw_sheet.xlsx
+++ b/output/part3/5. vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005514214498158991</v>
+        <v>0.01947087286019047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007694010848738613</v>
+        <v>0.01899497082536261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009578166933231158</v>
+        <v>0.01824968330497252</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01126444240632555</v>
+        <v>0.01752827770277496</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.955155689973489</v>
+        <v>6.753759726330938</v>
       </c>
       <c r="C3" t="n">
-        <v>3.394831111512401</v>
+        <v>8.196272492707449</v>
       </c>
       <c r="D3" t="n">
-        <v>4.926115517268729</v>
+        <v>8.453782917330757</v>
       </c>
       <c r="E3" t="n">
-        <v>4.734337573985806</v>
+        <v>8.163224750770995</v>
       </c>
     </row>
     <row r="4">
@@ -500,15 +500,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02220448350877621</v>
+        <v>-0.005514214498158991</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02481912364874573</v>
+        <v>-0.007694010848738613</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0324023320837963</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-0.009578166933231158</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.01126444240632555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,15 +519,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7.013272318267988</v>
+        <v>-1.955155689973489</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.404164939436404</v>
+        <v>-3.394831111512401</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.333969479823645</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>-4.926115517268729</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.734337573985806</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,13 +538,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01224697559470602</v>
+        <v>0.002861927112834738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008368220489540192</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>0.003986331081739771</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.006700649650705811</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.005119225738973283</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -549,13 +557,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.795967234906044</v>
+        <v>2.597917392994303</v>
       </c>
       <c r="C7" t="n">
-        <v>2.273219974189968</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>2.143298125438527</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.067360009852958</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.519453593188872</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -564,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007657089661325975</v>
+        <v>0.01764219997088727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008903211863784781</v>
+        <v>0.01700852541705838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01063790674073911</v>
+        <v>0.01764084704505658</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01238057532362279</v>
+        <v>0.01672176904611146</v>
       </c>
     </row>
     <row r="9">
@@ -583,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.765221197521946</v>
+        <v>6.055472056248354</v>
       </c>
       <c r="C9" t="n">
-        <v>4.040882854193589</v>
+        <v>7.187689434648486</v>
       </c>
       <c r="D9" t="n">
-        <v>4.8014351120712</v>
+        <v>7.805666223097877</v>
       </c>
       <c r="E9" t="n">
-        <v>4.952453258095796</v>
+        <v>7.672869785858572</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +614,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02017519830935221</v>
+        <v>-0.007657089661325975</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0226542295666625</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>-0.008903211863784781</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.01063790674073911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.01238057532362279</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -617,13 +633,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.339797393399877</v>
+        <v>-2.765221197521946</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.389830631458113</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+        <v>-4.040882854193589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.8014351120712</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4.952453258095796</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -632,13 +652,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00835776495227241</v>
+        <v>0.001904726305629638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004504963447397542</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>0.001987492072762657</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.002724455621541621</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.004886627065307397</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -647,13 +671,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.895934115745534</v>
+        <v>1.717983285850284</v>
       </c>
       <c r="C13" t="n">
-        <v>1.119383893630111</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+        <v>0.9590422325174918</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.052206627979532</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.265148738311833</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -662,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007078685298556125</v>
+        <v>0.01540097296011024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008680487604028096</v>
+        <v>0.01567260764149626</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01065621721080113</v>
+        <v>0.01565745542650256</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01259666415202041</v>
+        <v>0.01500531424038237</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.515867263755929</v>
+        <v>5.181120564656332</v>
       </c>
       <c r="C15" t="n">
-        <v>3.804121870816258</v>
+        <v>6.3666298464954</v>
       </c>
       <c r="D15" t="n">
-        <v>4.619232663797836</v>
+        <v>6.6230269615689</v>
       </c>
       <c r="E15" t="n">
-        <v>5.124331086033146</v>
+        <v>6.531973301008986</v>
       </c>
     </row>
     <row r="16">
@@ -700,13 +728,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01773686138069842</v>
+        <v>-0.007078685298556125</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02116683297095204</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>-0.008680487604028096</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.01065621721080113</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.01259666415202041</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -715,13 +747,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.513178630950585</v>
+        <v>-2.515867263755929</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.616497594119018</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+        <v>-3.804121870816258</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.619232663797836</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-5.124331086033146</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -730,13 +766,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006810583529634118</v>
+        <v>0.001541359483814671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004615601784072395</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+        <v>0.00215818822800695</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.005606844811557941</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0008407733640093572</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -745,13 +785,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.622825916512491</v>
+        <v>1.463944050248741</v>
       </c>
       <c r="C19" t="n">
-        <v>1.349078961405825</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+        <v>1.263018006722147</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.709327573824838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2129835129070369</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -760,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008852954431593705</v>
+        <v>0.01406294880386815</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01150173881096942</v>
+        <v>0.01411570727821992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01358360093365739</v>
+        <v>0.0141174593798907</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01447989462478875</v>
+        <v>0.0139403844787541</v>
       </c>
     </row>
     <row r="21">
@@ -779,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.123567132121082</v>
+        <v>4.56589033784384</v>
       </c>
       <c r="C21" t="n">
-        <v>4.75913123278851</v>
+        <v>5.357046784955265</v>
       </c>
       <c r="D21" t="n">
-        <v>5.571118917644933</v>
+        <v>5.807132996128346</v>
       </c>
       <c r="E21" t="n">
-        <v>5.632052754125775</v>
+        <v>5.804984948539256</v>
       </c>
     </row>
     <row r="22">
@@ -798,13 +842,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01652269895533423</v>
+        <v>-0.008852954431593705</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01976221467413408</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>-0.01150173881096942</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.01358360093365739</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.01447989462478875</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -813,13 +861,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.936235049943778</v>
+        <v>-3.123567132121082</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.837038295467231</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>-4.75913123278851</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.571118917644933</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.632052754125775</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -828,13 +880,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.003779808589563728</v>
+        <v>0.0007886368958836297</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0002637754810975874</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>-0.0002990281703285538</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0003324188366834002</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.003576121407434176</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -843,13 +899,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8851654475796069</v>
+        <v>0.7412789507470753</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07193459449966344</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>-0.1631020996807725</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.08618996605295239</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.8389275989676586</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
